--- a/Category Data/api_data_processed.xlsx
+++ b/Category Data/api_data_processed.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>andaman &amp; nicobar island</t>
+          <t>Andaman &amp; Nicobar Island</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>andhra pradesh</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -507,7 +507,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>arunachal pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -529,7 +529,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>assam</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -551,7 +551,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>bihar</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -573,7 +573,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>chandigarh</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -595,7 +595,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>chhattisgarh</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -617,7 +617,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dadara &amp; nagar havelli</t>
+          <t>Dadara &amp; Nagar Havelli</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -639,7 +639,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>daman &amp; diu</t>
+          <t>Daman &amp; Diu</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -661,7 +661,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>nct of delhi</t>
+          <t>NCT of Delhi</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -683,7 +683,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>goa</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -705,7 +705,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>gujarat</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -727,7 +727,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>haryana</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -749,7 +749,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>himachal pradesh</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -771,7 +771,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>jammu &amp; kashmir</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -793,7 +793,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>jharkhand</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -815,7 +815,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>karnataka</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -837,7 +837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>kerala</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -859,7 +859,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>lakshadweep</t>
+          <t>Lakshadweep</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -881,7 +881,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>madhya pradesh</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -903,7 +903,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>maharashtra</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -925,7 +925,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>manipur</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -947,7 +947,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>meghalaya</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -969,7 +969,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>mizoram</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -991,7 +991,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>nagaland</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1013,7 +1013,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>orissa</t>
+          <t>Orissa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1035,7 +1035,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>puducherry</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1057,7 +1057,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>punjab</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1079,7 +1079,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>rajasthan</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1101,7 +1101,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>sikkim</t>
+          <t>Sikkim</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1123,7 +1123,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>tamil nadu</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1145,7 +1145,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>telangana</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1167,7 +1167,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>tripura</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1189,7 +1189,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>uttar pradesh</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1211,7 +1211,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>uttarakhand</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1233,7 +1233,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>west bengal</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="B37" t="n">
